--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F2-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F2-Itga2b.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6740386666666667</v>
+        <v>0.754521</v>
       </c>
       <c r="H2">
-        <v>2.022116</v>
+        <v>2.263563</v>
       </c>
       <c r="I2">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="J2">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6763496666666667</v>
+        <v>1.646992</v>
       </c>
       <c r="N2">
-        <v>2.029049</v>
+        <v>4.940976</v>
       </c>
       <c r="O2">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="P2">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="Q2">
-        <v>0.4558858275204445</v>
+        <v>1.242690050832</v>
       </c>
       <c r="R2">
-        <v>4.102972447684</v>
+        <v>11.184210457488</v>
       </c>
       <c r="S2">
-        <v>0.03736053048128119</v>
+        <v>0.05735532805317697</v>
       </c>
       <c r="T2">
-        <v>0.0373605304812812</v>
+        <v>0.05735532805317697</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6740386666666667</v>
+        <v>0.754521</v>
       </c>
       <c r="H3">
-        <v>2.022116</v>
+        <v>2.263563</v>
       </c>
       <c r="I3">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="J3">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>11.173509</v>
       </c>
       <c r="O3">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="P3">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="Q3">
-        <v>2.510459036116</v>
+        <v>2.810215728063</v>
       </c>
       <c r="R3">
-        <v>22.594131325044</v>
+        <v>25.291941552567</v>
       </c>
       <c r="S3">
-        <v>0.2057359006989825</v>
+        <v>0.1297031748788347</v>
       </c>
       <c r="T3">
-        <v>0.2057359006989825</v>
+        <v>0.1297031748788347</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6740386666666667</v>
+        <v>0.754521</v>
       </c>
       <c r="H4">
-        <v>2.022116</v>
+        <v>2.263563</v>
       </c>
       <c r="I4">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="J4">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8207906666666666</v>
+        <v>2.284352333333333</v>
       </c>
       <c r="N4">
-        <v>2.462372</v>
+        <v>6.853057</v>
       </c>
       <c r="O4">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="P4">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="Q4">
-        <v>0.5532446465724444</v>
+        <v>1.723591806899</v>
       </c>
       <c r="R4">
-        <v>4.979201819151999</v>
+        <v>15.512326262091</v>
       </c>
       <c r="S4">
-        <v>0.04533923240013096</v>
+        <v>0.07955094952942916</v>
       </c>
       <c r="T4">
-        <v>0.04533923240013096</v>
+        <v>0.07955094952942916</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6740386666666667</v>
+        <v>0.754521</v>
       </c>
       <c r="H5">
-        <v>2.022116</v>
+        <v>2.263563</v>
       </c>
       <c r="I5">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="J5">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.31493</v>
+        <v>0.2937863333333333</v>
       </c>
       <c r="N5">
-        <v>0.9447899999999999</v>
+        <v>0.881359</v>
       </c>
       <c r="O5">
-        <v>0.05688175357561716</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="P5">
-        <v>0.05688175357561715</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="Q5">
-        <v>0.2122749972933333</v>
+        <v>0.221667958013</v>
       </c>
       <c r="R5">
-        <v>1.91047497564</v>
+        <v>1.995011622117</v>
       </c>
       <c r="S5">
-        <v>0.01739625587820188</v>
+        <v>0.01023090065153524</v>
       </c>
       <c r="T5">
-        <v>0.01739625587820189</v>
+        <v>0.01023090065153524</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9731926666666668</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H6">
         <v>2.919578</v>
       </c>
       <c r="I6">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="J6">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6763496666666667</v>
+        <v>1.646992</v>
       </c>
       <c r="N6">
-        <v>2.029049</v>
+        <v>4.940976</v>
       </c>
       <c r="O6">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="P6">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="Q6">
-        <v>0.6582185357024446</v>
+        <v>1.602840536458667</v>
       </c>
       <c r="R6">
-        <v>5.923966821322002</v>
+        <v>14.425564828128</v>
       </c>
       <c r="S6">
-        <v>0.0539420007860469</v>
+        <v>0.07397777484737041</v>
       </c>
       <c r="T6">
-        <v>0.0539420007860469</v>
+        <v>0.07397777484737041</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9731926666666668</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H7">
         <v>2.919578</v>
       </c>
       <c r="I7">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="J7">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>11.173509</v>
       </c>
       <c r="O7">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="P7">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="Q7">
         <v>3.624659006578001</v>
@@ -883,10 +883,10 @@
         <v>32.62193105920201</v>
       </c>
       <c r="S7">
-        <v>0.2970462671236141</v>
+        <v>0.1672931285351451</v>
       </c>
       <c r="T7">
-        <v>0.2970462671236141</v>
+        <v>0.1672931285351451</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9731926666666668</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H8">
         <v>2.919578</v>
       </c>
       <c r="I8">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="J8">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8207906666666666</v>
+        <v>2.284352333333333</v>
       </c>
       <c r="N8">
-        <v>2.462372</v>
+        <v>6.853057</v>
       </c>
       <c r="O8">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="P8">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="Q8">
-        <v>0.7987874576684445</v>
+        <v>2.223114938882889</v>
       </c>
       <c r="R8">
-        <v>7.189087119016</v>
+        <v>20.008034449946</v>
       </c>
       <c r="S8">
-        <v>0.06546183574647031</v>
+        <v>0.102606025158227</v>
       </c>
       <c r="T8">
-        <v>0.06546183574647031</v>
+        <v>0.102606025158227</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9731926666666668</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H9">
         <v>2.919578</v>
       </c>
       <c r="I9">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="J9">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.31493</v>
+        <v>0.2937863333333333</v>
       </c>
       <c r="N9">
-        <v>0.9447899999999999</v>
+        <v>0.881359</v>
       </c>
       <c r="O9">
-        <v>0.05688175357561716</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="P9">
-        <v>0.05688175357561715</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="Q9">
-        <v>0.3064875665133334</v>
+        <v>0.2859107051668889</v>
       </c>
       <c r="R9">
-        <v>2.75838809862</v>
+        <v>2.573196346502</v>
       </c>
       <c r="S9">
-        <v>0.02511711788263824</v>
+        <v>0.0131959713347532</v>
       </c>
       <c r="T9">
-        <v>0.02511711788263824</v>
+        <v>0.0131959713347532</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.508125</v>
+        <v>0.7824410000000001</v>
       </c>
       <c r="H10">
-        <v>1.524375</v>
+        <v>2.347323</v>
       </c>
       <c r="I10">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="J10">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6763496666666667</v>
+        <v>1.646992</v>
       </c>
       <c r="N10">
-        <v>2.029049</v>
+        <v>4.940976</v>
       </c>
       <c r="O10">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="P10">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="Q10">
-        <v>0.3436701743750001</v>
+        <v>1.288674067472</v>
       </c>
       <c r="R10">
-        <v>3.093031569375</v>
+        <v>11.598066607248</v>
       </c>
       <c r="S10">
-        <v>0.02816428862261267</v>
+        <v>0.05947768218148446</v>
       </c>
       <c r="T10">
-        <v>0.02816428862261267</v>
+        <v>0.05947768218148447</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.508125</v>
+        <v>0.7824410000000001</v>
       </c>
       <c r="H11">
-        <v>1.524375</v>
+        <v>2.347323</v>
       </c>
       <c r="I11">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="J11">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>11.173509</v>
       </c>
       <c r="O11">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="P11">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="Q11">
-        <v>1.892513086875</v>
+        <v>2.914203851823001</v>
       </c>
       <c r="R11">
-        <v>17.032617781875</v>
+        <v>26.22783466640701</v>
       </c>
       <c r="S11">
-        <v>0.155094299055055</v>
+        <v>0.1345026604367146</v>
       </c>
       <c r="T11">
-        <v>0.155094299055055</v>
+        <v>0.1345026604367146</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.508125</v>
+        <v>0.7824410000000001</v>
       </c>
       <c r="H12">
-        <v>1.524375</v>
+        <v>2.347323</v>
       </c>
       <c r="I12">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="J12">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8207906666666666</v>
+        <v>2.284352333333333</v>
       </c>
       <c r="N12">
-        <v>2.462372</v>
+        <v>6.853057</v>
       </c>
       <c r="O12">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="P12">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="Q12">
-        <v>0.4170642575</v>
+        <v>1.787370924045667</v>
       </c>
       <c r="R12">
-        <v>3.7535783175</v>
+        <v>16.086338316411</v>
       </c>
       <c r="S12">
-        <v>0.03417904432285271</v>
+        <v>0.08249462175440588</v>
       </c>
       <c r="T12">
-        <v>0.03417904432285272</v>
+        <v>0.08249462175440589</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.508125</v>
+        <v>0.7824410000000001</v>
       </c>
       <c r="H13">
-        <v>1.524375</v>
+        <v>2.347323</v>
       </c>
       <c r="I13">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="J13">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.31493</v>
+        <v>0.2937863333333333</v>
       </c>
       <c r="N13">
-        <v>0.9447899999999999</v>
+        <v>0.881359</v>
       </c>
       <c r="O13">
-        <v>0.05688175357561716</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="P13">
-        <v>0.05688175357561715</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="Q13">
-        <v>0.16002380625</v>
+        <v>0.2298704724396667</v>
       </c>
       <c r="R13">
-        <v>1.44021425625</v>
+        <v>2.068834251957</v>
       </c>
       <c r="S13">
-        <v>0.0131141920415713</v>
+        <v>0.01060948089806365</v>
       </c>
       <c r="T13">
-        <v>0.0131141920415713</v>
+        <v>0.01060948089806366</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.048595</v>
+        <v>0.2153186666666667</v>
       </c>
       <c r="H14">
-        <v>0.145785</v>
+        <v>0.645956</v>
       </c>
       <c r="I14">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="J14">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6763496666666667</v>
+        <v>1.646992</v>
       </c>
       <c r="N14">
-        <v>2.029049</v>
+        <v>4.940976</v>
       </c>
       <c r="O14">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="P14">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="Q14">
-        <v>0.03286721205166667</v>
+        <v>0.3546281214506666</v>
       </c>
       <c r="R14">
-        <v>0.295804908465</v>
+        <v>3.191653093056</v>
       </c>
       <c r="S14">
-        <v>0.002693517551027527</v>
+        <v>0.01636756665836912</v>
       </c>
       <c r="T14">
-        <v>0.002693517551027527</v>
+        <v>0.01636756665836912</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.048595</v>
+        <v>0.2153186666666667</v>
       </c>
       <c r="H15">
-        <v>0.145785</v>
+        <v>0.645956</v>
       </c>
       <c r="I15">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="J15">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>11.173509</v>
       </c>
       <c r="O15">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="P15">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="Q15">
-        <v>0.180992223285</v>
+        <v>0.801955019956</v>
       </c>
       <c r="R15">
-        <v>1.628930009565</v>
+        <v>7.217595179604</v>
       </c>
       <c r="S15">
-        <v>0.01483258541221234</v>
+        <v>0.03701356844586723</v>
       </c>
       <c r="T15">
-        <v>0.01483258541221234</v>
+        <v>0.03701356844586723</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.048595</v>
+        <v>0.2153186666666667</v>
       </c>
       <c r="H16">
-        <v>0.145785</v>
+        <v>0.645956</v>
       </c>
       <c r="I16">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="J16">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.8207906666666666</v>
+        <v>2.284352333333333</v>
       </c>
       <c r="N16">
-        <v>2.462372</v>
+        <v>6.853057</v>
       </c>
       <c r="O16">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="P16">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="Q16">
-        <v>0.03988632244666666</v>
+        <v>0.4918636986102222</v>
       </c>
       <c r="R16">
-        <v>0.35897690202</v>
+        <v>4.426773287492</v>
       </c>
       <c r="S16">
-        <v>0.003268744224096487</v>
+        <v>0.02270156083759628</v>
       </c>
       <c r="T16">
-        <v>0.003268744224096487</v>
+        <v>0.02270156083759628</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.048595</v>
+        <v>0.2153186666666667</v>
       </c>
       <c r="H17">
-        <v>0.145785</v>
+        <v>0.645956</v>
       </c>
       <c r="I17">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="J17">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.31493</v>
+        <v>0.2937863333333333</v>
       </c>
       <c r="N17">
-        <v>0.9447899999999999</v>
+        <v>0.881359</v>
       </c>
       <c r="O17">
-        <v>0.05688175357561716</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="P17">
-        <v>0.05688175357561715</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="Q17">
-        <v>0.01530402335</v>
+        <v>0.06325768157822222</v>
       </c>
       <c r="R17">
-        <v>0.13773621015</v>
+        <v>0.5693191342039999</v>
       </c>
       <c r="S17">
-        <v>0.001254187773205722</v>
+        <v>0.002919605799027064</v>
       </c>
       <c r="T17">
-        <v>0.001254187773205722</v>
+        <v>0.002919605799027065</v>
       </c>
     </row>
   </sheetData>
